--- a/Cronogramas/Cronograma_MAF105.xlsx
+++ b/Cronogramas/Cronograma_MAF105.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -859,15 +859,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,6 +890,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1196,13 +1196,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1868,11 +1868,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4">
         <f>SUM(E3:E38)</f>
@@ -1893,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+    <sheetView topLeftCell="A231" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:U259"/>
     </sheetView>
   </sheetViews>
@@ -1902,41 +1902,41 @@
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="135.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" style="23" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="23"/>
+    <col min="7" max="7" width="12.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="20" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="20"/>
     <col min="21" max="21" width="123.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20" t="str">
+      <c r="B2" s="17" t="str">
         <f>U3</f>
         <v>Data</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20" t="str">
+      <c r="B3" s="17" t="str">
         <f t="shared" ref="B3:B6" si="0">U4</f>
         <v>Dias da Semana</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1967,7 +1967,7 @@
         <f>O3&amp;P3&amp;Q3</f>
         <v>=G3</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="26" t="s">
         <v>48</v>
       </c>
       <c r="U3" t="str">
@@ -1976,14 +1976,14 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20" t="str">
+      <c r="B4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Conteúdo previsto</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="5">
@@ -1992,7 +1992,7 @@
       <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="6">
@@ -2023,14 +2023,14 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Aula</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="5">
@@ -2039,7 +2039,7 @@
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="6">
@@ -2061,7 +2061,7 @@
         <f t="shared" si="1"/>
         <v>=I3</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="27" t="s">
         <v>52</v>
       </c>
       <c r="U5" t="str">
@@ -2070,14 +2070,14 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CH</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="5">
@@ -2087,7 +2087,7 @@
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="6">
@@ -2118,11 +2118,11 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="G7" s="5">
         <f>G5+7</f>
         <v>43328</v>
@@ -2130,7 +2130,7 @@
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="6">
@@ -2161,11 +2161,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="G8" s="5">
         <f>G6+7</f>
         <v>43333</v>
@@ -2173,7 +2173,7 @@
       <c r="H8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="6">
@@ -2184,14 +2184,14 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18">
         <f>U10</f>
         <v>43319</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="5">
@@ -2201,7 +2201,7 @@
       <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="6">
@@ -2212,14 +2212,14 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="21" t="str">
+      <c r="A10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="18" t="str">
         <f t="shared" ref="B10:B13" si="2">U11</f>
         <v>Terça</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="5">
@@ -2229,7 +2229,7 @@
       <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="6">
@@ -2255,20 +2255,20 @@
       <c r="T10" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="28">
         <f>G4</f>
         <v>43319</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="21" t="str">
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Apresentação do curso, critérios de avaliação, cronograma e alguns conceitos fundamentais.</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="14">
@@ -2278,7 +2278,7 @@
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="4">
@@ -2310,14 +2310,14 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="5">
@@ -2327,7 +2327,7 @@
       <c r="H12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="6">
@@ -2359,14 +2359,14 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="5">
@@ -2376,7 +2376,7 @@
       <c r="H13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="6">
@@ -2408,11 +2408,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>43354</v>
@@ -2420,7 +2420,7 @@
       <c r="H14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="6">
@@ -2452,11 +2452,11 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>43356</v>
@@ -2464,7 +2464,7 @@
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="6">
@@ -2475,14 +2475,14 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="A16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="18">
         <f>U17</f>
         <v>43321</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="5">
@@ -2492,7 +2492,7 @@
       <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="6">
@@ -2503,14 +2503,14 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="21" t="str">
+      <c r="A17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18" t="str">
         <f t="shared" ref="B17:B20" si="6">U18</f>
         <v>Quinta</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="5">
@@ -2520,7 +2520,7 @@
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="6">
@@ -2546,20 +2546,20 @@
       <c r="T17" t="s">
         <v>62</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="28">
         <f>G5</f>
         <v>43321</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="21" t="str">
+      <c r="A18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="18" t="str">
         <f t="shared" si="6"/>
         <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="5">
@@ -2569,7 +2569,7 @@
       <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="6">
@@ -2601,14 +2601,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="22">
+      <c r="A19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="14">
@@ -2618,7 +2618,7 @@
       <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="23" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="4">
@@ -2650,14 +2650,14 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="22">
+      <c r="A20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="5">
@@ -2667,7 +2667,7 @@
       <c r="H20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J20" s="6">
@@ -2699,11 +2699,11 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>43377</v>
@@ -2711,7 +2711,7 @@
       <c r="H21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="6">
@@ -2743,11 +2743,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>43382</v>
@@ -2755,7 +2755,7 @@
       <c r="H22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="6">
@@ -2766,14 +2766,14 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="21">
+      <c r="A23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="18">
         <f>U24</f>
         <v>43326</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="5">
@@ -2783,7 +2783,7 @@
       <c r="H23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="6">
@@ -2794,14 +2794,14 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="21" t="str">
+      <c r="A24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="18" t="str">
         <f t="shared" ref="B24:B27" si="9">U25</f>
         <v>Terça</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="5">
@@ -2811,7 +2811,7 @@
       <c r="H24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="6">
@@ -2837,20 +2837,20 @@
       <c r="T24" t="s">
         <v>67</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="28">
         <f>G6</f>
         <v>43326</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="21" t="str">
+      <c r="A25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Aula prática: Excel, Latex, R</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="5">
@@ -2860,7 +2860,7 @@
       <c r="H25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="6">
@@ -2892,14 +2892,14 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="22">
+      <c r="A26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="19">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="5">
@@ -2909,7 +2909,7 @@
       <c r="H26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J26" s="6">
@@ -2941,14 +2941,14 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="22">
+      <c r="A27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="19">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="5">
@@ -2958,7 +2958,7 @@
       <c r="H27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
@@ -2990,11 +2990,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="G28" s="14">
         <f t="shared" si="3"/>
         <v>43403</v>
@@ -3002,7 +3002,7 @@
       <c r="H28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="4">
@@ -3034,11 +3034,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>43405</v>
@@ -3046,7 +3046,7 @@
       <c r="H29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="21" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="6">
@@ -3057,14 +3057,14 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="21">
+      <c r="A30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="18">
         <f>U31</f>
         <v>43328</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="5">
@@ -3074,7 +3074,7 @@
       <c r="H30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="24" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="6">
@@ -3085,14 +3085,14 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="21" t="str">
+      <c r="A31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="18" t="str">
         <f t="shared" ref="B31:B34" si="12">U32</f>
         <v>Quinta</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="5">
@@ -3102,7 +3102,7 @@
       <c r="H31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="6">
@@ -3128,20 +3128,20 @@
       <c r="T31" t="s">
         <v>72</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="28">
         <f>G7</f>
         <v>43328</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="21" t="str">
+      <c r="A32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="18" t="str">
         <f t="shared" si="12"/>
         <v>Introdução à teoria da probabilidade</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="5">
@@ -3151,7 +3151,7 @@
       <c r="H32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="22" t="s">
         <v>36</v>
       </c>
       <c r="J32" s="6">
@@ -3183,14 +3183,14 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="22">
+      <c r="A33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="19">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="5">
@@ -3200,7 +3200,7 @@
       <c r="H33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="6">
@@ -3232,14 +3232,14 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="22">
+      <c r="A34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="5">
@@ -3249,7 +3249,7 @@
       <c r="H34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="22" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="6">
@@ -3281,11 +3281,11 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="G35" s="5">
         <f t="shared" si="3"/>
         <v>43426</v>
@@ -3293,7 +3293,7 @@
       <c r="H35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="22" t="s">
         <v>38</v>
       </c>
       <c r="J35" s="6">
@@ -3325,11 +3325,11 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="G36" s="5">
         <f>G34+7</f>
         <v>43431</v>
@@ -3337,7 +3337,7 @@
       <c r="H36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="22" t="s">
         <v>39</v>
       </c>
       <c r="J36" s="6">
@@ -3348,14 +3348,14 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="21">
+      <c r="A37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18">
         <f>U38</f>
         <v>43333</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="5">
@@ -3365,7 +3365,7 @@
       <c r="H37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="21" t="s">
         <v>9</v>
       </c>
       <c r="J37" s="6">
@@ -3376,14 +3376,14 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="21" t="str">
+      <c r="A38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="18" t="str">
         <f t="shared" ref="B38:B41" si="14">U39</f>
         <v>Terça</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="5">
@@ -3393,7 +3393,7 @@
       <c r="H38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J38" s="6">
@@ -3419,20 +3419,20 @@
       <c r="T38" t="s">
         <v>77</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="28">
         <f>G8</f>
         <v>43333</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="21" t="str">
+      <c r="A39" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="18" t="str">
         <f t="shared" si="14"/>
         <v>Aula de exercícios</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="14">
@@ -3441,7 +3441,7 @@
       <c r="H39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="25" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="4">
@@ -3473,14 +3473,14 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="22">
+      <c r="A40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="19">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O40" t="s">
@@ -3506,14 +3506,14 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="22">
+      <c r="A41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="19">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O41" t="s">
@@ -3539,11 +3539,11 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="O42" t="s">
         <v>46</v>
       </c>
@@ -3567,33 +3567,33 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="21">
+      <c r="A44" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="18">
         <f>U45</f>
         <v>43335</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="21" t="str">
+      <c r="A45" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="str">
         <f t="shared" ref="B45:B48" si="17">U46</f>
         <v>Quinta</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O45" t="s">
@@ -3613,20 +3613,20 @@
       <c r="T45" t="s">
         <v>82</v>
       </c>
-      <c r="U45" s="31">
+      <c r="U45" s="28">
         <f>G9</f>
         <v>43335</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="21" t="str">
+      <c r="A46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="18" t="str">
         <f t="shared" si="17"/>
         <v>VI Semana Acadêmica de Matemática - Não haverá aula</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O46" t="s">
@@ -3652,14 +3652,14 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="22">
+      <c r="A47" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="19">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O47" t="s">
@@ -3685,14 +3685,14 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="22">
+      <c r="A48" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O48" t="s">
@@ -3718,11 +3718,11 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="O49" t="s">
         <v>46</v>
       </c>
@@ -3746,33 +3746,33 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="21">
+      <c r="A51" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="18">
         <f>U52</f>
         <v>43340</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="21" t="str">
+      <c r="A52" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="18" t="str">
         <f t="shared" ref="B52:B55" si="20">U53</f>
         <v>Terça</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O52" t="s">
@@ -3792,20 +3792,20 @@
       <c r="T52" t="s">
         <v>87</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="28">
         <f>G10</f>
         <v>43340</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="21" t="str">
+      <c r="A53" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="18" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Teoremas do cálculo de probabilidade </v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O53" t="s">
@@ -3831,14 +3831,14 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="22">
+      <c r="A54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="19">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O54" t="s">
@@ -3864,14 +3864,14 @@
       </c>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="22">
+      <c r="A55" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="19">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O55" t="s">
@@ -3897,11 +3897,11 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="O56" t="s">
         <v>46</v>
       </c>
@@ -3925,33 +3925,33 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="21">
+      <c r="A58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="18">
         <f>U59</f>
         <v>43342</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="21" t="str">
+      <c r="A59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="18" t="str">
         <f t="shared" ref="B59:B62" si="23">U60</f>
         <v>Quinta</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O59" t="s">
@@ -3971,20 +3971,20 @@
       <c r="T59" t="s">
         <v>92</v>
       </c>
-      <c r="U59" s="31">
+      <c r="U59" s="28">
         <f>G11</f>
         <v>43342</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="21" t="str">
+      <c r="A60" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="18" t="str">
         <f t="shared" si="23"/>
         <v>Aula de exercícios</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O60" t="s">
@@ -4010,14 +4010,14 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="22">
+      <c r="A61" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="19">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O61" t="s">
@@ -4043,14 +4043,14 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="22">
+      <c r="A62" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="19">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O62" t="s">
@@ -4076,11 +4076,11 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="O63" t="s">
         <v>46</v>
       </c>
@@ -4104,33 +4104,33 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="21">
+      <c r="A65" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="18">
         <f>U66</f>
         <v>43347</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="21" t="str">
+      <c r="A66" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="18" t="str">
         <f t="shared" ref="B66:B69" si="26">U67</f>
         <v>Terça</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O66" t="s">
@@ -4150,20 +4150,20 @@
       <c r="T66" t="s">
         <v>97</v>
       </c>
-      <c r="U66" s="31">
+      <c r="U66" s="28">
         <f>G12</f>
         <v>43347</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="21" t="str">
+      <c r="A67" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="18" t="str">
         <f t="shared" si="26"/>
         <v>Probabilidade condicional e independência estocástica</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O67" t="s">
@@ -4189,14 +4189,14 @@
       </c>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="22">
+      <c r="A68" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="19">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O68" t="s">
@@ -4222,14 +4222,14 @@
       </c>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="22">
+      <c r="A69" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="19">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O69" t="s">
@@ -4255,11 +4255,11 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
       <c r="O70" t="s">
         <v>46</v>
       </c>
@@ -4283,33 +4283,33 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="21">
+      <c r="A72" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="18">
         <f>U73</f>
         <v>43349</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="21" t="str">
+      <c r="A73" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="18" t="str">
         <f t="shared" ref="B73:B76" si="29">U74</f>
         <v>Quinta</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O73" t="s">
@@ -4329,20 +4329,20 @@
       <c r="T73" t="s">
         <v>102</v>
       </c>
-      <c r="U73" s="31">
+      <c r="U73" s="28">
         <f>G13</f>
         <v>43349</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="21" t="str">
+      <c r="A74" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="18" t="str">
         <f t="shared" si="29"/>
         <v>Aula prática</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O74" t="s">
@@ -4368,14 +4368,14 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="22">
+      <c r="A75" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="19">
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O75" t="s">
@@ -4401,14 +4401,14 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="22">
+      <c r="A76" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="19">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O76" t="s">
@@ -4434,11 +4434,11 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="O77" t="s">
         <v>46</v>
       </c>
@@ -4462,33 +4462,33 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
     </row>
     <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="21">
+      <c r="A79" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="18">
         <f>U80</f>
         <v>43354</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="21" t="str">
+      <c r="A80" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="18" t="str">
         <f t="shared" ref="B80:B83" si="31">U81</f>
         <v>Terça</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O80" t="s">
@@ -4508,20 +4508,20 @@
       <c r="T80" t="s">
         <v>107</v>
       </c>
-      <c r="U80" s="31">
+      <c r="U80" s="28">
         <f>G14</f>
         <v>43354</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="21" t="str">
+      <c r="A81" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="18" t="str">
         <f t="shared" si="31"/>
         <v>Teorema de Bayes</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O81" t="s">
@@ -4547,14 +4547,14 @@
       </c>
     </row>
     <row r="82" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="22">
+      <c r="A82" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="19">
         <f t="shared" si="31"/>
         <v>11</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O82" t="s">
@@ -4580,14 +4580,14 @@
       </c>
     </row>
     <row r="83" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="22">
+      <c r="A83" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="19">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O83" t="s">
@@ -4613,11 +4613,11 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
       <c r="O84" t="s">
         <v>46</v>
       </c>
@@ -4641,33 +4641,33 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
     </row>
     <row r="86" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="21">
+      <c r="A86" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="18">
         <f>U87</f>
         <v>43356</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="21" t="str">
+      <c r="A87" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="18" t="str">
         <f t="shared" ref="B87:B90" si="34">U88</f>
         <v>Quinta</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O87" t="s">
@@ -4687,20 +4687,20 @@
       <c r="T87" t="s">
         <v>112</v>
       </c>
-      <c r="U87" s="31">
+      <c r="U87" s="28">
         <f>G15</f>
         <v>43356</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B88" s="21" t="str">
+      <c r="A88" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="18" t="str">
         <f t="shared" si="34"/>
         <v>Aplicações de probabilidade</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O88" t="s">
@@ -4726,14 +4726,14 @@
       </c>
     </row>
     <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="22">
+      <c r="A89" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="19">
         <f t="shared" si="34"/>
         <v>12</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O89" t="s">
@@ -4759,14 +4759,14 @@
       </c>
     </row>
     <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="22">
+      <c r="A90" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="19">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O90" t="s">
@@ -4792,11 +4792,11 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="O91" t="s">
         <v>46</v>
       </c>
@@ -4820,33 +4820,33 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
     </row>
     <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="21">
+      <c r="A93" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="18">
         <f>U94</f>
         <v>43361</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="21" t="str">
+      <c r="A94" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="18" t="str">
         <f t="shared" ref="B94:B97" si="37">U95</f>
         <v>Terça</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O94" t="s">
@@ -4866,20 +4866,20 @@
       <c r="T94" t="s">
         <v>117</v>
       </c>
-      <c r="U94" s="31">
+      <c r="U94" s="28">
         <f>G16</f>
         <v>43361</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="21" t="str">
+      <c r="A95" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="18" t="str">
         <f t="shared" si="37"/>
         <v>Aula de Exercícios</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O95" t="s">
@@ -4905,14 +4905,14 @@
       </c>
     </row>
     <row r="96" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="22">
+      <c r="A96" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="19">
         <f t="shared" si="37"/>
         <v>13</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O96" t="s">
@@ -4938,14 +4938,14 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="22">
+      <c r="A97" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="19">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O97" t="s">
@@ -4971,11 +4971,11 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
       <c r="O98" t="s">
         <v>46</v>
       </c>
@@ -4999,33 +4999,33 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
     </row>
     <row r="100" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="21">
+      <c r="A100" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="18">
         <f>U101</f>
         <v>43363</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="21" t="str">
+      <c r="A101" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="18" t="str">
         <f t="shared" ref="B101:B104" si="40">U102</f>
         <v>Quinta</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O101" t="s">
@@ -5045,20 +5045,20 @@
       <c r="T101" t="s">
         <v>122</v>
       </c>
-      <c r="U101" s="31">
+      <c r="U101" s="28">
         <f>G17</f>
         <v>43363</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="21" t="str">
+      <c r="A102" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="18" t="str">
         <f t="shared" si="40"/>
         <v>Primeira Prova - Valor 100 pontos</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O102" t="s">
@@ -5084,14 +5084,14 @@
       </c>
     </row>
     <row r="103" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="22">
+      <c r="A103" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="19">
         <f t="shared" si="40"/>
         <v>14</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O103" t="s">
@@ -5117,14 +5117,14 @@
       </c>
     </row>
     <row r="104" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="22">
+      <c r="A104" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="19">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O104" t="s">
@@ -5150,11 +5150,11 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="O105" t="s">
         <v>46</v>
       </c>
@@ -5178,33 +5178,33 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
     </row>
     <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" s="21">
+      <c r="A107" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="18">
         <f>U108</f>
         <v>43368</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108" s="21" t="str">
+      <c r="A108" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="18" t="str">
         <f t="shared" ref="B108:B111" si="43">U109</f>
         <v>Terça</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O108" t="s">
@@ -5224,20 +5224,20 @@
       <c r="T108" t="s">
         <v>127</v>
       </c>
-      <c r="U108" s="31">
+      <c r="U108" s="28">
         <f>G18</f>
         <v>43368</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="21" t="str">
+      <c r="A109" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="18" t="str">
         <f t="shared" si="43"/>
         <v>Correção da primeira prova</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O109" t="s">
@@ -5263,14 +5263,14 @@
       </c>
     </row>
     <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B110" s="22">
+      <c r="A110" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="19">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O110" t="s">
@@ -5296,14 +5296,14 @@
       </c>
     </row>
     <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="22">
+      <c r="A111" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="19">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O111" t="s">
@@ -5329,11 +5329,11 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
       <c r="O112" t="s">
         <v>46</v>
       </c>
@@ -5357,33 +5357,33 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
     </row>
     <row r="114" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B114" s="21">
+      <c r="A114" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="18">
         <f>U115</f>
         <v>43370</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="21" t="str">
+      <c r="A115" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="18" t="str">
         <f t="shared" ref="B115:B118" si="46">U116</f>
         <v>Quinta</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O115" t="s">
@@ -5403,20 +5403,20 @@
       <c r="T115" t="s">
         <v>132</v>
       </c>
-      <c r="U115" s="31">
+      <c r="U115" s="28">
         <f>G19</f>
         <v>43370</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B116" s="21" t="str">
+      <c r="A116" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="18" t="str">
         <f t="shared" si="46"/>
         <v>Variáveis aleatórias discretas e contínuas, Funções de variáveis aleatórias</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O116" t="s">
@@ -5442,14 +5442,14 @@
       </c>
     </row>
     <row r="117" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="22">
+      <c r="A117" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="19">
         <f t="shared" si="46"/>
         <v>16</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O117" t="s">
@@ -5475,14 +5475,14 @@
       </c>
     </row>
     <row r="118" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" s="22">
+      <c r="A118" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="19">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O118" t="s">
@@ -5508,11 +5508,11 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
       <c r="O119" t="s">
         <v>46</v>
       </c>
@@ -5536,33 +5536,33 @@
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
     </row>
     <row r="121" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="21">
+      <c r="A121" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="18">
         <f>U122</f>
         <v>43375</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="21" t="str">
+      <c r="A122" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="18" t="str">
         <f t="shared" ref="B122:B125" si="48">U123</f>
         <v>Terça</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O122" t="s">
@@ -5582,20 +5582,20 @@
       <c r="T122" t="s">
         <v>137</v>
       </c>
-      <c r="U122" s="31">
+      <c r="U122" s="28">
         <f>G20</f>
         <v>43375</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B123" s="21" t="str">
+      <c r="A123" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Variáveis aleatórias discretas: funções de probabilidade, Variáveis aleatórias contínuas: funções densidade de probabilidade</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O123" t="s">
@@ -5621,14 +5621,14 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="22">
+      <c r="A124" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="19">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O124" t="s">
@@ -5654,14 +5654,14 @@
       </c>
     </row>
     <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B125" s="22">
+      <c r="A125" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="19">
         <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O125" t="s">
@@ -5687,11 +5687,11 @@
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
       <c r="O126" t="s">
         <v>46</v>
       </c>
@@ -5715,33 +5715,33 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
     </row>
     <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="21">
+      <c r="A128" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="18">
         <f>U129</f>
         <v>43377</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="21" t="str">
+      <c r="A129" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="18" t="str">
         <f t="shared" ref="B129:B132" si="51">U130</f>
         <v>Quinta</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O129" t="s">
@@ -5761,20 +5761,20 @@
       <c r="T129" t="s">
         <v>142</v>
       </c>
-      <c r="U129" s="31">
+      <c r="U129" s="28">
         <f>G21</f>
         <v>43377</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="21" t="str">
+      <c r="A130" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="18" t="str">
         <f t="shared" si="51"/>
         <v>Variáveis aleatórias bidimensionais.</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O130" t="s">
@@ -5800,14 +5800,14 @@
       </c>
     </row>
     <row r="131" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="22">
+      <c r="A131" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="19">
         <f t="shared" si="51"/>
         <v>18</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O131" t="s">
@@ -5833,14 +5833,14 @@
       </c>
     </row>
     <row r="132" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" s="22">
+      <c r="A132" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="19">
         <f t="shared" si="51"/>
         <v>2</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O132" t="s">
@@ -5866,11 +5866,11 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
       <c r="O133" t="s">
         <v>46</v>
       </c>
@@ -5894,33 +5894,33 @@
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
     </row>
     <row r="135" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B135" s="21">
+      <c r="A135" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" s="18">
         <f>U136</f>
         <v>43382</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="21" t="str">
+      <c r="A136" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="18" t="str">
         <f t="shared" ref="B136:B139" si="54">U137</f>
         <v>Terça</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O136" t="s">
@@ -5940,20 +5940,20 @@
       <c r="T136" t="s">
         <v>147</v>
       </c>
-      <c r="U136" s="31">
+      <c r="U136" s="28">
         <f>G22</f>
         <v>43382</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B137" s="21" t="str">
+      <c r="A137" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="18" t="str">
         <f t="shared" si="54"/>
         <v>Esperança matemática e propriedades, variância, covariância e propriedades.</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O137" t="s">
@@ -5979,14 +5979,14 @@
       </c>
     </row>
     <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="22">
+      <c r="A138" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="19">
         <f t="shared" si="54"/>
         <v>19</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O138" t="s">
@@ -6012,14 +6012,14 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B139" s="22">
+      <c r="A139" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="19">
         <f t="shared" si="54"/>
         <v>2</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O139" t="s">
@@ -6045,11 +6045,11 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
       <c r="O140" t="s">
         <v>46</v>
       </c>
@@ -6073,33 +6073,33 @@
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
     </row>
     <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B142" s="21">
+      <c r="A142" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="18">
         <f>U143</f>
         <v>43384</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B143" s="21" t="str">
+      <c r="A143" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="18" t="str">
         <f t="shared" ref="B143:B146" si="57">U144</f>
         <v>Quinta</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O143" t="s">
@@ -6119,20 +6119,20 @@
       <c r="T143" t="s">
         <v>152</v>
       </c>
-      <c r="U143" s="31">
+      <c r="U143" s="28">
         <f>G23</f>
         <v>43384</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" s="21" t="str">
+      <c r="A144" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="18" t="str">
         <f t="shared" si="57"/>
         <v>Não Haverá aula</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O144" t="s">
@@ -6158,14 +6158,14 @@
       </c>
     </row>
     <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" s="22">
+      <c r="A145" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="19">
         <f t="shared" si="57"/>
         <v>20</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O145" t="s">
@@ -6191,14 +6191,14 @@
       </c>
     </row>
     <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="22">
+      <c r="A146" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="19">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O146" t="s">
@@ -6224,11 +6224,11 @@
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
       <c r="O147" t="s">
         <v>46</v>
       </c>
@@ -6252,33 +6252,33 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
     </row>
     <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="21">
+      <c r="A149" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="18">
         <f>U150</f>
         <v>43389</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="21" t="str">
+      <c r="A150" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="18" t="str">
         <f t="shared" ref="B150:B153" si="60">U151</f>
         <v>Terça</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O150" t="s">
@@ -6298,20 +6298,20 @@
       <c r="T150" t="s">
         <v>157</v>
       </c>
-      <c r="U150" s="31">
+      <c r="U150" s="28">
         <f>G24</f>
         <v>43389</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B151" s="21" t="str">
+      <c r="A151" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="18" t="str">
         <f t="shared" si="60"/>
         <v>Simpósio de Integração Acadêmica - Não haverá aula</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O151" t="s">
@@ -6337,14 +6337,14 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B152" s="22">
+      <c r="A152" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="19">
         <f t="shared" si="60"/>
         <v>21</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O152" t="s">
@@ -6370,14 +6370,14 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="22">
+      <c r="A153" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="19">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O153" t="s">
@@ -6403,11 +6403,11 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
       <c r="O154" t="s">
         <v>46</v>
       </c>
@@ -6431,33 +6431,33 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
     </row>
     <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B156" s="21">
+      <c r="A156" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="18">
         <f>U157</f>
         <v>43391</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B157" s="21" t="str">
+      <c r="A157" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="18" t="str">
         <f t="shared" ref="B157:B160" si="63">U158</f>
         <v>Quinta</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O157" t="s">
@@ -6477,20 +6477,20 @@
       <c r="T157" t="s">
         <v>162</v>
       </c>
-      <c r="U157" s="31">
+      <c r="U157" s="28">
         <f>G25</f>
         <v>43391</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" s="21" t="str">
+      <c r="A158" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="18" t="str">
         <f t="shared" si="63"/>
         <v>Simpósio de Integração Acadêmica - Não haverá aula</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O158" t="s">
@@ -6516,14 +6516,14 @@
       </c>
     </row>
     <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B159" s="22">
+      <c r="A159" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="19">
         <f t="shared" si="63"/>
         <v>22</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O159" t="s">
@@ -6549,14 +6549,14 @@
       </c>
     </row>
     <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B160" s="22">
+      <c r="A160" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="19">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O160" t="s">
@@ -6582,11 +6582,11 @@
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
       <c r="O161" t="s">
         <v>46</v>
       </c>
@@ -6610,33 +6610,33 @@
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
     </row>
     <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163" s="21">
+      <c r="A163" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="18">
         <f>U164</f>
         <v>43396</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164" s="21" t="str">
+      <c r="A164" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="18" t="str">
         <f t="shared" ref="B164:B167" si="65">U165</f>
         <v>Terça</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C164" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O164" t="s">
@@ -6656,20 +6656,20 @@
       <c r="T164" t="s">
         <v>167</v>
       </c>
-      <c r="U164" s="31">
+      <c r="U164" s="28">
         <f>G26</f>
         <v>43396</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165" s="21" t="str">
+      <c r="A165" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="18" t="str">
         <f t="shared" si="65"/>
         <v>Distribuições de variáveis aleatórias discretas e contínuas, Distribuições de variáveis aleatórias discretas: uniforme, binomial e Poisson</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O165" t="s">
@@ -6695,14 +6695,14 @@
       </c>
     </row>
     <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B166" s="22">
+      <c r="A166" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="19">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O166" t="s">
@@ -6728,14 +6728,14 @@
       </c>
     </row>
     <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B167" s="22">
+      <c r="A167" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="19">
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O167" t="s">
@@ -6761,11 +6761,11 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
       <c r="O168" t="s">
         <v>46</v>
       </c>
@@ -6789,33 +6789,33 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
     </row>
     <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B170" s="21">
+      <c r="A170" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="18">
         <f>U171</f>
         <v>43398</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B171" s="21" t="str">
+      <c r="A171" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B171" s="18" t="str">
         <f t="shared" ref="B171:B174" si="68">U172</f>
         <v>Quinta</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O171" t="s">
@@ -6835,20 +6835,20 @@
       <c r="T171" t="s">
         <v>172</v>
       </c>
-      <c r="U171" s="31">
+      <c r="U171" s="28">
         <f>G27</f>
         <v>43398</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B172" s="21" t="str">
+      <c r="A172" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="18" t="str">
         <f t="shared" si="68"/>
         <v>Distribuição de variáveis aleatórias contínuas: uniforme e normal</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O172" t="s">
@@ -6874,14 +6874,14 @@
       </c>
     </row>
     <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B173" s="22">
+      <c r="A173" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" s="19">
         <f t="shared" si="68"/>
         <v>24</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O173" t="s">
@@ -6907,14 +6907,14 @@
       </c>
     </row>
     <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B174" s="22">
+      <c r="A174" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174" s="19">
         <f t="shared" si="68"/>
         <v>2</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O174" t="s">
@@ -6940,11 +6940,11 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
       <c r="O175" t="s">
         <v>46</v>
       </c>
@@ -6968,33 +6968,33 @@
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
     </row>
     <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="21">
+      <c r="A177" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="18">
         <f>U178</f>
         <v>43403</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B178" s="21" t="str">
+      <c r="A178" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="18" t="str">
         <f t="shared" ref="B178:B181" si="71">U179</f>
         <v>Terça</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O178" t="s">
@@ -7014,20 +7014,20 @@
       <c r="T178" t="s">
         <v>177</v>
       </c>
-      <c r="U178" s="31">
+      <c r="U178" s="28">
         <f>G28</f>
         <v>43403</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B179" s="21" t="str">
+      <c r="A179" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="18" t="str">
         <f t="shared" si="71"/>
         <v>Aula prática</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O179" t="s">
@@ -7053,14 +7053,14 @@
       </c>
     </row>
     <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B180" s="22">
+      <c r="A180" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" s="19">
         <f t="shared" si="71"/>
         <v>25</v>
       </c>
-      <c r="C180" s="19" t="s">
+      <c r="C180" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O180" t="s">
@@ -7086,14 +7086,14 @@
       </c>
     </row>
     <row r="181" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B181" s="22">
+      <c r="A181" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="19">
         <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O181" t="s">
@@ -7119,11 +7119,11 @@
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
       <c r="O182" t="s">
         <v>46</v>
       </c>
@@ -7147,33 +7147,33 @@
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
     </row>
     <row r="184" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B184" s="21">
+      <c r="A184" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" s="18">
         <f>U185</f>
         <v>43405</v>
       </c>
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B185" s="21" t="str">
+      <c r="A185" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B185" s="18" t="str">
         <f t="shared" ref="B185:B188" si="74">U186</f>
         <v>Quinta</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O185" t="s">
@@ -7193,20 +7193,20 @@
       <c r="T185" t="s">
         <v>182</v>
       </c>
-      <c r="U185" s="31">
+      <c r="U185" s="28">
         <f>G29</f>
         <v>43405</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B186" s="21" t="str">
+      <c r="A186" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186" s="18" t="str">
         <f t="shared" si="74"/>
         <v>Aula de Exercícios</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O186" t="s">
@@ -7232,14 +7232,14 @@
       </c>
     </row>
     <row r="187" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="22">
+      <c r="A187" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="19">
         <f t="shared" si="74"/>
         <v>26</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O187" t="s">
@@ -7265,14 +7265,14 @@
       </c>
     </row>
     <row r="188" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B188" s="22">
+      <c r="A188" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="19">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O188" t="s">
@@ -7298,11 +7298,11 @@
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
       <c r="O189" t="s">
         <v>46</v>
       </c>
@@ -7326,33 +7326,33 @@
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
     </row>
     <row r="191" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B191" s="21">
+      <c r="A191" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B191" s="18">
         <f>U192</f>
         <v>43410</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="21" t="str">
+      <c r="A192" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192" s="18" t="str">
         <f t="shared" ref="B192:B195" si="77">U193</f>
         <v>Terça</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C192" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O192" t="s">
@@ -7372,20 +7372,20 @@
       <c r="T192" t="s">
         <v>187</v>
       </c>
-      <c r="U192" s="31">
+      <c r="U192" s="28">
         <f>G30</f>
         <v>43410</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B193" s="21" t="str">
+      <c r="A193" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" s="18" t="str">
         <f t="shared" si="77"/>
         <v>Segunda Prova</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O193" t="s">
@@ -7411,14 +7411,14 @@
       </c>
     </row>
     <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B194" s="22">
+      <c r="A194" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B194" s="19">
         <f t="shared" si="77"/>
         <v>27</v>
       </c>
-      <c r="C194" s="19" t="s">
+      <c r="C194" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O194" t="s">
@@ -7444,14 +7444,14 @@
       </c>
     </row>
     <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B195" s="22">
+      <c r="A195" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B195" s="19">
         <f t="shared" si="77"/>
         <v>2</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O195" t="s">
@@ -7477,11 +7477,11 @@
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
       <c r="O196" t="s">
         <v>46</v>
       </c>
@@ -7505,33 +7505,33 @@
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
     </row>
     <row r="198" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B198" s="21">
+      <c r="A198" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" s="18">
         <f>U199</f>
         <v>43412</v>
       </c>
-      <c r="C198" s="19" t="s">
+      <c r="C198" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B199" s="21" t="str">
+      <c r="A199" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="18" t="str">
         <f t="shared" ref="B199:B202" si="80">U200</f>
         <v>Quinta</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O199" t="s">
@@ -7551,20 +7551,20 @@
       <c r="T199" t="s">
         <v>192</v>
       </c>
-      <c r="U199" s="31">
+      <c r="U199" s="28">
         <f>G31</f>
         <v>43412</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B200" s="21" t="str">
+      <c r="A200" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="18" t="str">
         <f t="shared" si="80"/>
         <v>Não Haverá aula</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O200" t="s">
@@ -7590,14 +7590,14 @@
       </c>
     </row>
     <row r="201" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B201" s="22">
+      <c r="A201" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="19">
         <f t="shared" si="80"/>
         <v>28</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O201" t="s">
@@ -7623,14 +7623,14 @@
       </c>
     </row>
     <row r="202" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B202" s="22">
+      <c r="A202" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="19">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O202" t="s">
@@ -7656,11 +7656,11 @@
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
       <c r="O203" t="s">
         <v>46</v>
       </c>
@@ -7684,33 +7684,33 @@
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
     </row>
     <row r="205" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B205" s="21">
+      <c r="A205" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" s="18">
         <f>U206</f>
         <v>43417</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B206" s="21" t="str">
+      <c r="A206" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" s="18" t="str">
         <f t="shared" ref="B206:B209" si="82">U207</f>
         <v>Terça</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O206" t="s">
@@ -7730,20 +7730,20 @@
       <c r="T206" t="s">
         <v>197</v>
       </c>
-      <c r="U206" s="31">
+      <c r="U206" s="28">
         <f>G32</f>
         <v>43417</v>
       </c>
     </row>
     <row r="207" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B207" s="21" t="str">
+      <c r="A207" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="18" t="str">
         <f t="shared" si="82"/>
         <v>testes de hipóteses</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O207" t="s">
@@ -7769,14 +7769,14 @@
       </c>
     </row>
     <row r="208" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B208" s="22">
+      <c r="A208" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" s="19">
         <f t="shared" si="82"/>
         <v>29</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O208" t="s">
@@ -7802,14 +7802,14 @@
       </c>
     </row>
     <row r="209" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B209" s="22">
+      <c r="A209" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209" s="19">
         <f t="shared" si="82"/>
         <v>2</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O209" t="s">
@@ -7835,11 +7835,11 @@
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="31"/>
       <c r="O210" t="s">
         <v>46</v>
       </c>
@@ -7863,33 +7863,33 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
+      <c r="A211" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
     </row>
     <row r="212" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B212" s="21">
+      <c r="A212" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B212" s="18">
         <f>U213</f>
         <v>43419</v>
       </c>
-      <c r="C212" s="19" t="s">
+      <c r="C212" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B213" s="21" t="str">
+      <c r="A213" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B213" s="18" t="str">
         <f t="shared" ref="B213:B216" si="85">U214</f>
         <v>Quinta</v>
       </c>
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O213" t="s">
@@ -7909,20 +7909,20 @@
       <c r="T213" t="s">
         <v>202</v>
       </c>
-      <c r="U213" s="31">
+      <c r="U213" s="28">
         <f>G33</f>
         <v>43419</v>
       </c>
     </row>
     <row r="214" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B214" s="21" t="str">
+      <c r="A214" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B214" s="18" t="str">
         <f t="shared" si="85"/>
         <v>Feriado - Proclamação da República</v>
       </c>
-      <c r="C214" s="19" t="s">
+      <c r="C214" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O214" t="s">
@@ -7948,14 +7948,14 @@
       </c>
     </row>
     <row r="215" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B215" s="22">
+      <c r="A215" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B215" s="19">
         <f t="shared" si="85"/>
         <v>30</v>
       </c>
-      <c r="C215" s="19" t="s">
+      <c r="C215" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O215" t="s">
@@ -7981,14 +7981,14 @@
       </c>
     </row>
     <row r="216" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="22">
+      <c r="A216" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" s="19">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C216" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O216" t="s">
@@ -8014,11 +8014,11 @@
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
       <c r="O217" t="s">
         <v>46</v>
       </c>
@@ -8042,33 +8042,33 @@
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="31"/>
     </row>
     <row r="219" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B219" s="21">
+      <c r="A219" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B219" s="18">
         <f>U220</f>
         <v>43424</v>
       </c>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B220" s="21" t="str">
+      <c r="A220" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B220" s="18" t="str">
         <f t="shared" ref="B220:B223" si="88">U221</f>
         <v>Terça</v>
       </c>
-      <c r="C220" s="19" t="s">
+      <c r="C220" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O220" t="s">
@@ -8088,20 +8088,20 @@
       <c r="T220" t="s">
         <v>207</v>
       </c>
-      <c r="U220" s="31">
+      <c r="U220" s="28">
         <f>G34</f>
         <v>43424</v>
       </c>
     </row>
     <row r="221" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221" s="21" t="str">
+      <c r="A221" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B221" s="18" t="str">
         <f t="shared" si="88"/>
         <v>Testes Z, F e t.</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C221" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O221" t="s">
@@ -8127,14 +8127,14 @@
       </c>
     </row>
     <row r="222" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B222" s="22">
+      <c r="A222" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B222" s="19">
         <f t="shared" si="88"/>
         <v>31</v>
       </c>
-      <c r="C222" s="19" t="s">
+      <c r="C222" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O222" t="s">
@@ -8160,14 +8160,14 @@
       </c>
     </row>
     <row r="223" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B223" s="22">
+      <c r="A223" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B223" s="19">
         <f t="shared" si="88"/>
         <v>2</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O223" t="s">
@@ -8193,11 +8193,11 @@
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
+      <c r="A224" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
       <c r="O224" t="s">
         <v>46</v>
       </c>
@@ -8221,33 +8221,33 @@
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
     </row>
     <row r="226" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B226" s="21">
+      <c r="A226" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B226" s="18">
         <f>U227</f>
         <v>43426</v>
       </c>
-      <c r="C226" s="19" t="s">
+      <c r="C226" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B227" s="21" t="str">
+      <c r="A227" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="18" t="str">
         <f t="shared" ref="B227:B230" si="91">U228</f>
         <v>Quinta</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O227" t="s">
@@ -8267,20 +8267,20 @@
       <c r="T227" t="s">
         <v>212</v>
       </c>
-      <c r="U227" s="31">
+      <c r="U227" s="28">
         <f>G35</f>
         <v>43426</v>
       </c>
     </row>
     <row r="228" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B228" s="21" t="str">
+      <c r="A228" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" s="18" t="str">
         <f t="shared" si="91"/>
         <v>Teste de qui-quadrado</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O228" t="s">
@@ -8306,14 +8306,14 @@
       </c>
     </row>
     <row r="229" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B229" s="22">
+      <c r="A229" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B229" s="19">
         <f t="shared" si="91"/>
         <v>32</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C229" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O229" t="s">
@@ -8339,14 +8339,14 @@
       </c>
     </row>
     <row r="230" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B230" s="22">
+      <c r="A230" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="19">
         <f t="shared" si="91"/>
         <v>2</v>
       </c>
-      <c r="C230" s="19" t="s">
+      <c r="C230" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O230" t="s">
@@ -8372,11 +8372,11 @@
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="31"/>
       <c r="O231" t="s">
         <v>46</v>
       </c>
@@ -8400,33 +8400,33 @@
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
+      <c r="A232" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="31"/>
     </row>
     <row r="233" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B233" s="21">
+      <c r="A233" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B233" s="18">
         <f>U234</f>
         <v>43431</v>
       </c>
-      <c r="C233" s="19" t="s">
+      <c r="C233" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234" s="21" t="str">
+      <c r="A234" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="18" t="str">
         <f t="shared" ref="B234:B237" si="94">U235</f>
         <v>Terça</v>
       </c>
-      <c r="C234" s="19" t="s">
+      <c r="C234" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O234" t="s">
@@ -8446,20 +8446,20 @@
       <c r="T234" t="s">
         <v>217</v>
       </c>
-      <c r="U234" s="31">
+      <c r="U234" s="28">
         <f>G36</f>
         <v>43431</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B235" s="21" t="str">
+      <c r="A235" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235" s="18" t="str">
         <f t="shared" si="94"/>
         <v>Regressão linear simples.</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="C235" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O235" t="s">
@@ -8485,14 +8485,14 @@
       </c>
     </row>
     <row r="236" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B236" s="22">
+      <c r="A236" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B236" s="19">
         <f t="shared" si="94"/>
         <v>34</v>
       </c>
-      <c r="C236" s="19" t="s">
+      <c r="C236" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O236" t="s">
@@ -8518,14 +8518,14 @@
       </c>
     </row>
     <row r="237" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B237" s="22">
+      <c r="A237" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237" s="19">
         <f t="shared" si="94"/>
         <v>2</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="C237" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O237" t="s">
@@ -8551,11 +8551,11 @@
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="31"/>
       <c r="O238" t="s">
         <v>46</v>
       </c>
@@ -8579,33 +8579,33 @@
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239" s="18" t="s">
+      <c r="A239" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
     </row>
     <row r="240" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B240" s="21">
+      <c r="A240" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B240" s="18">
         <f>U241</f>
         <v>43433</v>
       </c>
-      <c r="C240" s="19" t="s">
+      <c r="C240" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B241" s="21" t="str">
+      <c r="A241" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="18" t="str">
         <f t="shared" ref="B241:B244" si="97">U242</f>
         <v>Quinta</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O241" t="s">
@@ -8625,20 +8625,20 @@
       <c r="T241" t="s">
         <v>222</v>
       </c>
-      <c r="U241" s="31">
+      <c r="U241" s="28">
         <f>G37</f>
         <v>43433</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B242" s="21" t="str">
+      <c r="A242" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="18" t="str">
         <f t="shared" si="97"/>
         <v>Aula de Exercícios</v>
       </c>
-      <c r="C242" s="19" t="s">
+      <c r="C242" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O242" t="s">
@@ -8664,14 +8664,14 @@
       </c>
     </row>
     <row r="243" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B243" s="22">
+      <c r="A243" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B243" s="19">
         <f t="shared" si="97"/>
         <v>35</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O243" t="s">
@@ -8697,14 +8697,14 @@
       </c>
     </row>
     <row r="244" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B244" s="22">
+      <c r="A244" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" s="19">
         <f t="shared" si="97"/>
         <v>2</v>
       </c>
-      <c r="C244" s="19" t="s">
+      <c r="C244" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O244" t="s">
@@ -8730,11 +8730,11 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="31"/>
       <c r="O245" t="s">
         <v>46</v>
       </c>
@@ -8758,33 +8758,33 @@
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A246" s="18" t="s">
+      <c r="A246" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="31"/>
     </row>
     <row r="247" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B247" s="21">
+      <c r="A247" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B247" s="18">
         <f>U248</f>
         <v>43438</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B248" s="21" t="str">
+      <c r="A248" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248" s="18" t="str">
         <f t="shared" ref="B248:B251" si="99">U249</f>
         <v>Terça</v>
       </c>
-      <c r="C248" s="19" t="s">
+      <c r="C248" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O248" t="s">
@@ -8804,20 +8804,20 @@
       <c r="T248" t="s">
         <v>227</v>
       </c>
-      <c r="U248" s="31">
+      <c r="U248" s="28">
         <f>G38</f>
         <v>43438</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B249" s="21" t="str">
+      <c r="A249" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B249" s="18" t="str">
         <f t="shared" si="99"/>
         <v>Terceira Prova</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O249" t="s">
@@ -8843,14 +8843,14 @@
       </c>
     </row>
     <row r="250" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B250" s="22">
+      <c r="A250" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B250" s="19">
         <f t="shared" si="99"/>
         <v>36</v>
       </c>
-      <c r="C250" s="19" t="s">
+      <c r="C250" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O250" t="s">
@@ -8876,14 +8876,14 @@
       </c>
     </row>
     <row r="251" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B251" s="22">
+      <c r="A251" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B251" s="19">
         <f t="shared" si="99"/>
         <v>2</v>
       </c>
-      <c r="C251" s="19" t="s">
+      <c r="C251" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O251" t="s">
@@ -8909,11 +8909,11 @@
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="31"/>
       <c r="O252" t="s">
         <v>46</v>
       </c>
@@ -8937,33 +8937,33 @@
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A253" s="18" t="s">
+      <c r="A253" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
+      <c r="B253" s="31"/>
+      <c r="C253" s="31"/>
     </row>
     <row r="254" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B254" s="21">
+      <c r="A254" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B254" s="18">
         <f>U255</f>
         <v>43446</v>
       </c>
-      <c r="C254" s="19" t="s">
+      <c r="C254" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B255" s="21" t="str">
+      <c r="A255" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B255" s="18" t="str">
         <f t="shared" ref="B255:B258" si="102">U256</f>
         <v>Quarta</v>
       </c>
-      <c r="C255" s="19" t="s">
+      <c r="C255" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O255" t="s">
@@ -8983,20 +8983,20 @@
       <c r="T255" t="s">
         <v>232</v>
       </c>
-      <c r="U255" s="31">
+      <c r="U255" s="28">
         <f>G39</f>
         <v>43446</v>
       </c>
     </row>
     <row r="256" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B256" s="21" t="str">
+      <c r="A256" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256" s="18" t="str">
         <f t="shared" si="102"/>
         <v>Exame Final/ Prova Substitutiva</v>
       </c>
-      <c r="C256" s="19" t="s">
+      <c r="C256" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O256" t="s">
@@ -9022,14 +9022,14 @@
       </c>
     </row>
     <row r="257" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B257" s="22">
+      <c r="A257" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B257" s="19">
         <f t="shared" si="102"/>
         <v>37</v>
       </c>
-      <c r="C257" s="19" t="s">
+      <c r="C257" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O257" t="s">
@@ -9055,14 +9055,14 @@
       </c>
     </row>
     <row r="258" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B258" s="22">
+      <c r="A258" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B258" s="19">
         <f t="shared" si="102"/>
         <v>2</v>
       </c>
-      <c r="C258" s="19" t="s">
+      <c r="C258" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O258" t="s">
@@ -9088,11 +9088,11 @@
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A259" s="18" t="s">
+      <c r="A259" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="31"/>
       <c r="O259" t="s">
         <v>46</v>
       </c>
@@ -9117,6 +9117,72 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A232:C232"/>
@@ -9125,72 +9191,6 @@
     <mergeCell ref="A245:C245"/>
     <mergeCell ref="A246:C246"/>
     <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
